--- a/results/case1/break_even_data_case1.xlsx
+++ b/results/case1/break_even_data_case1.xlsx
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.2302791488195928</v>
+        <v>-0.2302791499501395</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1228,7 +1228,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.1040035244916666</v>
+        <v>0.1040035266662019</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.005022842365667366</v>
+        <v>0.005022842318885456</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1290,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.00920130260810945</v>
+        <v>0.009201302608109448</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.008987454480350262</v>
+        <v>0.008987454476951547</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.228572814893216</v>
+        <v>-0.2285728146344918</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1404,13 +1404,13 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.100239658789537</v>
+        <v>0.1002396588415</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1083401924441563</v>
+        <v>0.1083401922196647</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.005047328277706624</v>
+        <v>0.00504732829175053</v>
       </c>
     </row>
   </sheetData>
